--- a/Spatial_data/UVic/Harrop-Archibald 2008/Arbutus menziesii Points/Arbutus menziesii Points.xlsx
+++ b/Spatial_data/UVic/Harrop-Archibald 2008/Arbutus menziesii Points/Arbutus menziesii Points.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnk\Documents\GitHub\Github Shackelford-lab\Shackelford-lab\Spatial_data\UVic\Harrop-Archibald 2008\Arbutus menziesii Points\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE09FA10-BF0C-4455-8BE8-8B74B63E1140}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39DCF41-5DDF-41D7-9ECB-0036A5060E40}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9585" yWindow="2895" windowWidth="15360" windowHeight="10785" xr2:uid="{6934027C-8984-4F11-9C55-B9A1F75C2751}"/>
+    <workbookView xWindow="4410" yWindow="2310" windowWidth="17190" windowHeight="11565" xr2:uid="{6934027C-8984-4F11-9C55-B9A1F75C2751}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>Data table metadata</t>
   </si>
@@ -112,12 +111,21 @@
     <t>Site</t>
   </si>
   <si>
-    <t>Site where the area is recorded.</t>
-  </si>
-  <si>
     <t>String</t>
   </si>
   <si>
+    <t xml:space="preserve">General site location the point was recorded (Figure 2, Harrop-Archibald, 2008). </t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Year the data was recorded.</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <u/>
@@ -126,31 +134,169 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">Values:
+      <t>Values:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+yyyy. E.g. 2008. 
+NULL = neither the original meta-data nor accompanying report provided the year of creation. </t>
+    </r>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Month the data was recorded.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Values:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+1-12. E.g. 2=February.
+NULL = neither the original meta-data nor accompanying report provided the month of creation. </t>
+    </r>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Day the data was recorded.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Values:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+1-31. E.g. 15=the 15th day of a month. 
+NULL = neither the original meta-data nor accompanying report provided the day of creation.</t>
+    </r>
+  </si>
+  <si>
+    <t>Ivy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visual estimate on a scale of 1 to 5 based on the coverage of ivy on the tree or object (Harrop-Archibald, 2008, pg.51). </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ivy coverage values:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 1=individual tendrils of ivy; 2=quarter covered; 3=half covered; 4= three quarters covered; 5=completely covered </t>
+    </r>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Comments recorded about the point.</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Species recorded.</t>
+  </si>
+  <si>
+    <r>
+      <t>All points describe Arbutus trees(s) (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Arbutus menziesii). </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Values:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+CaMea = Garry Oak and Camas Meadow Area;
+HaWoods = Haro Woods; 
+SoWoods = South Woods;
+LHobCreek = Lower Hobbs Creek/Mystic Vale;
+CJVI = CJVI Property
+FiRa = Finerty Ravine}.
 </t>
     </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">South Woods; Lower Hobbs Cree / Mystic Vale; Haro Woods; Finnerty Ravine. </t>
-    </r>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>22-06-2020</t>
+  </si>
+  <si>
+    <t>23-06-2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +330,13 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -224,7 +377,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -249,11 +402,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -571,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD12268A-6398-4290-A9FB-F0A6F4DF1282}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,16 +740,16 @@
     <col min="5" max="5" width="57.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -604,29 +760,29 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>22</v>
+      <c r="B3" s="12">
+        <v>2008</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -637,7 +793,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -648,7 +804,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -657,7 +813,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
@@ -674,7 +830,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
@@ -689,62 +845,119 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:6" s="11" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10"/>
+    </row>
+    <row r="11" spans="1:6" s="11" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11"/>
+    </row>
+    <row r="12" spans="1:6" s="11" customFormat="1" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12"/>
+    </row>
+    <row r="13" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13"/>
+    </row>
+    <row r="14" spans="1:6" s="11" customFormat="1" ht="96.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
+      <c r="E14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14"/>
+    </row>
+    <row r="15" spans="1:6" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
+      <c r="D15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
@@ -781,65 +994,39 @@
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
     </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C3BD9A-EA60-4FEC-8C9D-4AA5B56A1EBD}">
-  <dimension ref="A3:E10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>